--- a/2_Methane_Database/Table_Frac_Emitting.xlsx
+++ b/2_Methane_Database/Table_Frac_Emitting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru3\Dropbox\Doctoral\Projects\Research Projects\manuscripts\2_BU_paper\3_Analysis\3_Methane_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru3\Dropbox\Doctoral\Projects\Research Projects\manuscripts\2_BU_paper\3_Analysis\2_Methane_Database\FINAL POST REVISION VERSIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACC7B2-40A2-4EAD-B589-DDBFDC532343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315626B1-4B28-41E5-BEB1-5BA483FECA84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fraction_Leaking" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="97">
   <si>
     <t>&gt; 10000 ppmv</t>
   </si>
@@ -251,6 +251,81 @@
   </si>
   <si>
     <t>fraction emitting = 100%,  see explanation in supplementary information</t>
+  </si>
+  <si>
+    <t>Study ID</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Number of quantified leaks</t>
+  </si>
+  <si>
+    <t>Number of components screened</t>
+  </si>
+  <si>
+    <t>Leak volumes used</t>
+  </si>
+  <si>
+    <t>Component counts used</t>
+  </si>
+  <si>
+    <t>Components screened</t>
+  </si>
+  <si>
+    <t>Allen 2013</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Various components</t>
+  </si>
+  <si>
+    <t>Allen 2014a</t>
+  </si>
+  <si>
+    <t>Pneum. controllers</t>
+  </si>
+  <si>
+    <t>Bell 2017</t>
+  </si>
+  <si>
+    <t>Fayetteville</t>
+  </si>
+  <si>
+    <t>Barnett</t>
+  </si>
+  <si>
+    <t>Thoma 2017a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uintah </t>
+  </si>
+  <si>
+    <t>Pasci 2019</t>
+  </si>
+  <si>
+    <t>API 4598</t>
+  </si>
+  <si>
+    <t>Clearstone 20181</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>1Given that leakage data was taken in Canada, we limit useage of this data to equipment schedules (component counts)</t>
+  </si>
+  <si>
+    <t>Average &gt; 10,000 ppmv</t>
   </si>
 </sst>
 </file>
@@ -469,7 +544,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -520,9 +595,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -547,12 +619,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,9 +635,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +644,59 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -866,19 +982,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5BC354-94BF-4755-BE6A-98E5AC4546CF}">
   <dimension ref="B1:Y120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="13" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="29" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="29" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="14" customFormat="1"/>
@@ -888,30 +1004,30 @@
       <c r="B4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="46" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="14" customFormat="1">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="14" customFormat="1">
       <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>71</v>
       </c>
     </row>
@@ -922,154 +1038,154 @@
       </c>
     </row>
     <row r="9" spans="2:14" s="14" customFormat="1">
-      <c r="C9" s="49">
+      <c r="C9" s="45">
         <v>5.6216481544742679E-4</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="45">
         <v>1.1682097806499721E-3</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>4.830917874396135E-3</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="45">
         <v>2.3809523809523812E-3</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="45">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="45">
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="45">
         <v>1</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="45">
         <v>1</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="45">
         <v>0.18830610490111779</v>
       </c>
-      <c r="L9" s="49">
-        <v>0</v>
-      </c>
-      <c r="M9" s="49">
-        <v>0</v>
-      </c>
-      <c r="N9" s="49">
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45">
+        <v>0</v>
+      </c>
+      <c r="N9" s="45">
         <v>6.1194029850746269E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="14" customFormat="1">
-      <c r="C10" s="49">
+      <c r="C10" s="45">
         <v>2.9023132783893998E-3</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="45">
         <v>1.3995127202674372E-2</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="45">
         <v>1.3260173754000914E-2</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="45">
         <v>5.4644808743169399E-3</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="45">
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="45">
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="45">
         <v>1</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="45">
         <v>0.18830610490111779</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="45">
         <v>3.4393809114359415E-2</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="45">
         <v>2.8374892519346516E-2</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="45">
         <v>6.1194029850746269E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" s="14" customFormat="1">
-      <c r="C11" s="49">
+      <c r="C11" s="45">
         <v>1.5072563627750743E-3</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="45">
         <v>1.8929150892374256E-3</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="45">
         <v>1.2077294685990338E-2</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="45">
         <v>2.7322404371584699E-3</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="45">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="45">
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="45">
         <v>1</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="45">
         <v>1</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="45">
         <v>0.39552880481513325</v>
       </c>
-      <c r="L11" s="49">
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
-        <v>0</v>
-      </c>
-      <c r="N11" s="49">
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45">
         <v>0.15223880597014924</v>
       </c>
     </row>
     <row r="12" spans="2:14" s="14" customFormat="1">
-      <c r="C12" s="49">
+      <c r="C12" s="45">
         <v>6.931262934887765E-3</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="45">
         <v>2.4930590968326817E-2</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="45">
         <v>2.5148605395518976E-2</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="45">
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="45">
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="45">
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="45">
         <v>1</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="45">
         <v>1</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="45">
         <v>0.39552880481513325</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="45">
         <v>8.5984522785898538E-3</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="45">
         <v>8.5984522785898538E-3</v>
       </c>
-      <c r="N12" s="49">
+      <c r="N12" s="45">
         <v>0.15223880597014924</v>
       </c>
     </row>
@@ -1118,213 +1234,213 @@
       </c>
     </row>
     <row r="16" spans="2:14" s="14" customFormat="1">
-      <c r="C16" s="48">
-        <f>C53</f>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:K16" si="0">C53</f>
         <v>5.6216481544742679E-4</v>
       </c>
-      <c r="D16" s="48">
-        <f>D53</f>
+      <c r="D16" s="44">
+        <f t="shared" si="0"/>
         <v>1.1682097806499721E-3</v>
       </c>
-      <c r="E16" s="48">
-        <f>E53</f>
+      <c r="E16" s="44">
+        <f t="shared" si="0"/>
         <v>4.830917874396135E-3</v>
       </c>
-      <c r="F16" s="48">
-        <f>F53</f>
+      <c r="F16" s="44">
+        <f t="shared" si="0"/>
         <v>2.3809523809523812E-3</v>
       </c>
-      <c r="G16" s="48">
-        <f>G53</f>
+      <c r="G16" s="44">
+        <f t="shared" si="0"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="H16" s="48">
-        <f>H53</f>
+      <c r="H16" s="44">
+        <f t="shared" si="0"/>
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I16" s="48">
-        <f>I53</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
-        <f>J53</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="48">
-        <f>K53</f>
+      <c r="I16" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="44">
+        <f t="shared" si="0"/>
         <v>0.18830610490111779</v>
       </c>
-      <c r="L16" s="48">
-        <v>0</v>
-      </c>
-      <c r="M16" s="48">
-        <v>0</v>
-      </c>
-      <c r="N16" s="48">
+      <c r="L16" s="44">
+        <v>0</v>
+      </c>
+      <c r="M16" s="44">
+        <v>0</v>
+      </c>
+      <c r="N16" s="44">
         <f>N53</f>
         <v>6.1194029850746269E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" s="14" customFormat="1">
-      <c r="C17" s="48">
-        <f>C54</f>
+      <c r="C17" s="44">
+        <f t="shared" ref="C17:K17" si="1">C54</f>
         <v>2.9023132783893998E-3</v>
       </c>
-      <c r="D17" s="48">
-        <f>D54</f>
+      <c r="D17" s="44">
+        <f t="shared" si="1"/>
         <v>1.3995127202674372E-2</v>
       </c>
-      <c r="E17" s="48">
-        <f>E54</f>
+      <c r="E17" s="44">
+        <f t="shared" si="1"/>
         <v>1.3260173754000914E-2</v>
       </c>
-      <c r="F17" s="48">
-        <f>F54</f>
+      <c r="F17" s="44">
+        <f t="shared" si="1"/>
         <v>5.4644808743169399E-3</v>
       </c>
-      <c r="G17" s="48">
-        <f>G54</f>
+      <c r="G17" s="44">
+        <f t="shared" si="1"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="H17" s="48">
-        <f>H54</f>
+      <c r="H17" s="44">
+        <f t="shared" si="1"/>
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I17" s="48">
-        <f>I54</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="48">
-        <f>J54</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="48">
-        <f>K54</f>
+      <c r="I17" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="44">
+        <f t="shared" si="1"/>
         <v>0.18830610490111779</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="44">
         <f>L54</f>
         <v>3.4393809114359415E-2</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="44">
         <f>M54</f>
         <v>2.8374892519346516E-2</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="44">
         <f>N54</f>
         <v>6.1194029850746269E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16" s="14" customFormat="1">
-      <c r="P18" s="48"/>
+      <c r="P18" s="44"/>
     </row>
     <row r="19" spans="2:16" s="14" customFormat="1">
       <c r="B19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20" spans="2:16" s="14" customFormat="1">
-      <c r="C20" s="48">
-        <f>C56</f>
+      <c r="C20" s="44">
+        <f t="shared" ref="C20:K20" si="2">C56</f>
         <v>1.5072563627750743E-3</v>
       </c>
-      <c r="D20" s="48">
-        <f>D56</f>
+      <c r="D20" s="44">
+        <f t="shared" si="2"/>
         <v>1.8929150892374256E-3</v>
       </c>
-      <c r="E20" s="48">
-        <f>E56</f>
+      <c r="E20" s="44">
+        <f t="shared" si="2"/>
         <v>1.2077294685990338E-2</v>
       </c>
-      <c r="F20" s="48">
-        <f>F56</f>
+      <c r="F20" s="44">
+        <f t="shared" si="2"/>
         <v>2.7322404371584699E-3</v>
       </c>
-      <c r="G20" s="48">
-        <f>G56</f>
+      <c r="G20" s="44">
+        <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="H20" s="48">
-        <f>H56</f>
+      <c r="H20" s="44">
+        <f t="shared" si="2"/>
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I20" s="48">
-        <f>I56</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="48">
-        <f>J56</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="48">
-        <f>K56</f>
+      <c r="I20" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="44">
+        <f t="shared" si="2"/>
         <v>0.39552880481513325</v>
       </c>
-      <c r="L20" s="48">
-        <v>0</v>
-      </c>
-      <c r="M20" s="48">
-        <v>0</v>
-      </c>
-      <c r="N20" s="48">
+      <c r="L20" s="44">
+        <v>0</v>
+      </c>
+      <c r="M20" s="44">
+        <v>0</v>
+      </c>
+      <c r="N20" s="44">
         <f>N56</f>
         <v>0.15223880597014924</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="14" customFormat="1">
-      <c r="C21" s="48">
-        <f>C57</f>
+      <c r="C21" s="44">
+        <f t="shared" ref="C21:K21" si="3">C57</f>
         <v>6.931262934887765E-3</v>
       </c>
-      <c r="D21" s="48">
-        <f>D57</f>
+      <c r="D21" s="44">
+        <f t="shared" si="3"/>
         <v>2.4930590968326817E-2</v>
       </c>
-      <c r="E21" s="48">
-        <f>E57</f>
+      <c r="E21" s="44">
+        <f t="shared" si="3"/>
         <v>2.5148605395518976E-2</v>
       </c>
-      <c r="F21" s="48">
-        <f>F57</f>
+      <c r="F21" s="44">
+        <f t="shared" si="3"/>
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="G21" s="48">
-        <f>G57</f>
+      <c r="G21" s="44">
+        <f t="shared" si="3"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="H21" s="48">
-        <f>H57</f>
+      <c r="H21" s="44">
+        <f t="shared" si="3"/>
         <v>8.8033909357678516E-3</v>
       </c>
-      <c r="I21" s="48">
-        <f>I57</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="48">
-        <f>J57</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="48">
-        <f>K57</f>
+      <c r="I21" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="44">
+        <f t="shared" si="3"/>
         <v>0.39552880481513325</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="44">
         <f>L57</f>
         <v>8.5984522785898538E-3</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="44">
         <f>M57</f>
         <v>8.5984522785898538E-3</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="44">
         <f>N57</f>
         <v>0.15223880597014924</v>
       </c>
     </row>
     <row r="22" spans="2:16" s="14" customFormat="1"/>
     <row r="23" spans="2:16" s="14" customFormat="1">
-      <c r="B23" s="47"/>
+      <c r="B23" s="43"/>
     </row>
     <row r="24" spans="2:16" s="14" customFormat="1" ht="42">
       <c r="B24" s="25"/>
@@ -1368,929 +1484,929 @@
       <c r="P24" s="22"/>
     </row>
     <row r="25" spans="2:16" s="14" customFormat="1">
-      <c r="B25" s="46"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="26" spans="2:16" s="14" customFormat="1">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="40">
         <f>C69</f>
         <v>81659</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="40">
         <f>D69</f>
         <v>17649</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="40">
         <f>E69</f>
         <v>2187</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="40">
         <f>F69</f>
         <v>420</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="40">
         <f>G69</f>
         <v>62</v>
       </c>
-      <c r="H26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="43">
+      <c r="H26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="40">
         <f>K69</f>
         <v>33</v>
       </c>
-      <c r="K26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="43">
+      <c r="K26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="40">
         <f>Q69</f>
         <v>670</v>
       </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="2:16" s="14" customFormat="1">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="2:16" s="14" customFormat="1">
       <c r="B28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="43">
-        <f>C74</f>
+      <c r="C28" s="40">
+        <f t="shared" ref="C28:G29" si="4">C74</f>
         <v>566</v>
       </c>
-      <c r="D28" s="43">
-        <f>D74</f>
+      <c r="D28" s="40">
+        <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="E28" s="43">
-        <f>E74</f>
+      <c r="E28" s="40">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="F28" s="43">
-        <f>F74</f>
+      <c r="F28" s="40">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G28" s="43">
-        <f>G74</f>
+      <c r="G28" s="40">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="43">
+      <c r="H28" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="40">
         <f>K74</f>
         <v>1</v>
       </c>
-      <c r="K28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="43">
+      <c r="K28" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="40">
         <f>Q74</f>
         <v>102</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="2:16" s="14" customFormat="1">
       <c r="B29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="43">
-        <f>C75</f>
+      <c r="C29" s="40">
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
-      <c r="D29" s="43">
-        <f>D75</f>
+      <c r="D29" s="40">
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="E29" s="43">
-        <f>E75</f>
+      <c r="E29" s="40">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="F29" s="43">
-        <f>F75</f>
+      <c r="F29" s="40">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G29" s="43">
-        <f>G75</f>
+      <c r="G29" s="40">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H29" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="43">
+      <c r="H29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="40">
         <f>K75</f>
         <v>0</v>
       </c>
-      <c r="K29" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="43">
+      <c r="K29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="40">
         <f>Q75</f>
         <v>41</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="2:16" s="14" customFormat="1">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
     </row>
     <row r="31" spans="2:16" s="14" customFormat="1">
       <c r="B31" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="40">
-        <f>C80</f>
+      <c r="C31" s="37">
+        <f t="shared" ref="C31:G32" si="5">C80</f>
         <v>6.931262934887765E-3</v>
       </c>
-      <c r="D31" s="40">
-        <f>D80</f>
+      <c r="D31" s="37">
+        <f t="shared" si="5"/>
         <v>2.4930590968326817E-2</v>
       </c>
-      <c r="E31" s="40">
-        <f>E80</f>
+      <c r="E31" s="37">
+        <f t="shared" si="5"/>
         <v>2.5148605395518976E-2</v>
       </c>
-      <c r="F31" s="40">
-        <f>F80</f>
+      <c r="F31" s="37">
+        <f t="shared" si="5"/>
         <v>3.0952380952380953E-2</v>
       </c>
-      <c r="G31" s="40">
-        <f>G80</f>
+      <c r="G31" s="37">
+        <f t="shared" si="5"/>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="H31" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="40">
+      <c r="H31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="37">
         <f>K80</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="K31" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="L31" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="N31" s="40">
+      <c r="K31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="37">
         <f>Q80</f>
         <v>0.15223880597014924</v>
       </c>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" spans="2:16" s="14" customFormat="1">
       <c r="B32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="40">
-        <f>C81</f>
+      <c r="C32" s="37">
+        <f t="shared" si="5"/>
         <v>2.9023132783893998E-3</v>
       </c>
-      <c r="D32" s="40">
-        <f>D81</f>
+      <c r="D32" s="37">
+        <f t="shared" si="5"/>
         <v>1.3995127202674372E-2</v>
       </c>
-      <c r="E32" s="40">
-        <f>E81</f>
+      <c r="E32" s="37">
+        <f t="shared" si="5"/>
         <v>1.3260173754000914E-2</v>
       </c>
-      <c r="F32" s="40">
-        <f>F81</f>
+      <c r="F32" s="37">
+        <f t="shared" si="5"/>
         <v>2.3809523809523812E-3</v>
       </c>
-      <c r="G32" s="40">
-        <f>G81</f>
+      <c r="G32" s="37">
+        <f t="shared" si="5"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="40">
+      <c r="H32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="37">
         <f>K81</f>
         <v>0</v>
       </c>
-      <c r="K32" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="N32" s="40">
+      <c r="K32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="37">
         <f>Q81</f>
         <v>6.1194029850746269E-2</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
     </row>
     <row r="33" spans="2:16" s="14" customFormat="1">
-      <c r="B33" s="39"/>
-      <c r="C33" s="38" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
     </row>
     <row r="34" spans="2:16" s="14" customFormat="1">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <f>C87</f>
         <v>603026</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="34">
         <f>D87</f>
         <v>80465</v>
       </c>
-      <c r="E34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="35">
+      <c r="E34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="34">
         <f>M87</f>
         <v>1163</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="34">
         <f>N87</f>
         <v>1163</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="34">
         <f>O87</f>
         <v>1163</v>
       </c>
-      <c r="N34" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="N34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
     </row>
     <row r="35" spans="2:16" s="14" customFormat="1">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="2:16" s="14" customFormat="1">
       <c r="B36" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <f>C93</f>
         <v>1390</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <f>D93</f>
         <v>450</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="35">
-        <f>SUM(M93:O93)</f>
+      <c r="E36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="34">
+        <f t="shared" ref="K36:M37" si="6">SUM(M93:O93)</f>
         <v>480</v>
       </c>
-      <c r="L36" s="35">
-        <f>SUM(N93:P93)</f>
+      <c r="L36" s="34">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="M36" s="35">
-        <f>SUM(O93:Q93)</f>
+      <c r="M36" s="34">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="N36" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="N36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
     </row>
     <row r="37" spans="2:16" s="14" customFormat="1">
       <c r="B37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="34">
         <f>C94</f>
         <v>339</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="34">
         <f>D94</f>
         <v>94</v>
       </c>
-      <c r="E37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" s="35">
-        <f>SUM(M94:O94)</f>
+      <c r="E37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="34">
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
-      <c r="L37" s="35">
-        <f>SUM(N94:P94)</f>
+      <c r="L37" s="34">
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
-      <c r="M37" s="35">
-        <f>SUM(O94:Q94)</f>
+      <c r="M37" s="34">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="N37" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
+      <c r="N37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
     </row>
     <row r="38" spans="2:16" s="14" customFormat="1">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="2:16" s="14" customFormat="1">
       <c r="B39" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="29">
         <f>C99</f>
         <v>2.3050415736634903E-3</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="29">
         <f>D99</f>
         <v>5.5924936307711424E-3</v>
       </c>
-      <c r="E39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="30">
-        <f>M99</f>
+      <c r="E39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="29">
+        <f t="shared" ref="K39:M40" si="7">M99</f>
         <v>0.39552880481513325</v>
       </c>
-      <c r="L39" s="30">
-        <f>N99</f>
+      <c r="L39" s="29">
+        <f t="shared" si="7"/>
         <v>8.5984522785898538E-3</v>
       </c>
-      <c r="M39" s="30">
-        <f>O99</f>
+      <c r="M39" s="29">
+        <f t="shared" si="7"/>
         <v>8.5984522785898538E-3</v>
       </c>
-      <c r="N39" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
+      <c r="N39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
     </row>
     <row r="40" spans="2:16" s="14" customFormat="1">
       <c r="B40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="29">
         <f>C100</f>
         <v>5.6216481544742679E-4</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="29">
         <f>D100</f>
         <v>1.1682097806499721E-3</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="30">
-        <f>M100</f>
+      <c r="E40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="29">
+        <f t="shared" si="7"/>
         <v>0.18830610490111779</v>
       </c>
-      <c r="L40" s="30">
-        <f>N100</f>
+      <c r="L40" s="29">
+        <f t="shared" si="7"/>
         <v>3.4393809114359415E-2</v>
       </c>
-      <c r="M40" s="30">
-        <f>O100</f>
+      <c r="M40" s="29">
+        <f t="shared" si="7"/>
         <v>2.8374892519346516E-2</v>
       </c>
-      <c r="N40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
+      <c r="N40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
     </row>
     <row r="41" spans="2:16" s="14" customFormat="1">
-      <c r="B41" s="39"/>
-      <c r="C41" s="38" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
     </row>
     <row r="42" spans="2:16" s="14" customFormat="1">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="34">
         <f>(C106+I106)</f>
         <v>46442</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="34">
         <f>(D106+J106)</f>
         <v>7396</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="34">
         <f>(E106+K106)</f>
         <v>414</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="34">
         <f>(F106+L106)</f>
         <v>366</v>
       </c>
-      <c r="G42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="N42" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
+      <c r="G42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
     </row>
     <row r="43" spans="2:16" s="14" customFormat="1">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
     </row>
     <row r="44" spans="2:16" s="14" customFormat="1">
       <c r="B44" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="34">
         <f>(C112+I112)</f>
         <v>70</v>
       </c>
-      <c r="D44" s="35">
-        <f>D112</f>
+      <c r="D44" s="34">
+        <f t="shared" ref="D44:F45" si="8">D112</f>
         <v>14</v>
       </c>
-      <c r="E44" s="35">
-        <f>E112</f>
+      <c r="E44" s="34">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F44" s="35">
-        <f>F112</f>
+      <c r="F44" s="34">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="N44" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
+      <c r="G44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
     </row>
     <row r="45" spans="2:16" s="14" customFormat="1">
       <c r="B45" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="34">
         <f>(C113+I113)</f>
         <v>46</v>
       </c>
-      <c r="D45" s="35">
-        <f>D113</f>
+      <c r="D45" s="34">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="E45" s="35">
-        <f>E113</f>
+      <c r="E45" s="34">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="F45" s="35">
-        <f>F113</f>
+      <c r="F45" s="34">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
+      <c r="G45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
     </row>
     <row r="46" spans="2:16" s="14" customFormat="1">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
     </row>
     <row r="47" spans="2:16" s="14" customFormat="1">
       <c r="B47" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="30">
-        <f>C118</f>
+      <c r="C47" s="29">
+        <f t="shared" ref="C47:F48" si="9">C118</f>
         <v>1.5072563627750743E-3</v>
       </c>
-      <c r="D47" s="30">
-        <f>D118</f>
+      <c r="D47" s="29">
+        <f t="shared" si="9"/>
         <v>1.8929150892374256E-3</v>
       </c>
-      <c r="E47" s="30">
-        <f>E118</f>
+      <c r="E47" s="29">
+        <f t="shared" si="9"/>
         <v>1.2077294685990338E-2</v>
       </c>
-      <c r="F47" s="30">
-        <f>F118</f>
+      <c r="F47" s="29">
+        <f t="shared" si="9"/>
         <v>2.7322404371584699E-3</v>
       </c>
-      <c r="G47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="N47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
+      <c r="G47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
     </row>
     <row r="48" spans="2:16" s="14" customFormat="1">
       <c r="B48" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="32">
-        <f>C119</f>
+      <c r="C48" s="31">
+        <f t="shared" si="9"/>
         <v>9.904827526807632E-4</v>
       </c>
-      <c r="D48" s="32">
-        <f>D119</f>
+      <c r="D48" s="31">
+        <f t="shared" si="9"/>
         <v>2.4337479718766902E-3</v>
       </c>
-      <c r="E48" s="32">
-        <f>E119</f>
+      <c r="E48" s="31">
+        <f t="shared" si="9"/>
         <v>4.830917874396135E-3</v>
       </c>
-      <c r="F48" s="32">
-        <f>F119</f>
+      <c r="F48" s="31">
+        <f t="shared" si="9"/>
         <v>5.4644808743169399E-3</v>
       </c>
-      <c r="G48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="L48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="N48" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
+      <c r="G48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
     </row>
     <row r="49" spans="2:20" s="14" customFormat="1">
       <c r="B49" s="17"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
     </row>
     <row r="50" spans="2:20" s="14" customFormat="1">
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
     </row>
     <row r="51" spans="2:20" s="14" customFormat="1" ht="42">
       <c r="B51" s="25"/>
@@ -2335,20 +2451,20 @@
     </row>
     <row r="52" spans="2:20" s="14" customFormat="1">
       <c r="B52" s="25"/>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
     </row>
@@ -2446,20 +2562,20 @@
     </row>
     <row r="55" spans="2:20" s="14" customFormat="1">
       <c r="B55" s="25"/>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
     </row>
@@ -2623,27 +2739,27 @@
         <v>53</v>
       </c>
       <c r="C61" s="16">
-        <f>C53+C56</f>
+        <f t="shared" ref="C61:H62" si="10">C53+C56</f>
         <v>2.0694211782225011E-3</v>
       </c>
       <c r="D61" s="16">
-        <f>D53+D56</f>
+        <f t="shared" si="10"/>
         <v>3.0611248698873975E-3</v>
       </c>
       <c r="E61" s="16">
-        <f>E53+E56</f>
+        <f t="shared" si="10"/>
         <v>1.6908212560386472E-2</v>
       </c>
       <c r="F61" s="16">
-        <f>F53+F56</f>
+        <f t="shared" si="10"/>
         <v>5.1131928181108507E-3</v>
       </c>
       <c r="G61" s="16">
-        <f>G53+G56</f>
+        <f t="shared" si="10"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="H61" s="16">
-        <f>H53+H56</f>
+        <f t="shared" si="10"/>
         <v>1.7606781871535703E-2</v>
       </c>
       <c r="I61" s="16"/>
@@ -2670,27 +2786,27 @@
         <v>52</v>
       </c>
       <c r="C62" s="16">
-        <f>C54+C57</f>
+        <f t="shared" si="10"/>
         <v>9.8335762132771651E-3</v>
       </c>
       <c r="D62" s="16">
-        <f>D54+D57</f>
+        <f t="shared" si="10"/>
         <v>3.892571817100119E-2</v>
       </c>
       <c r="E62" s="16">
-        <f>E54+E57</f>
+        <f t="shared" si="10"/>
         <v>3.8408779149519887E-2</v>
       </c>
       <c r="F62" s="16">
-        <f>F54+F57</f>
+        <f t="shared" si="10"/>
         <v>3.6416861826697892E-2</v>
       </c>
       <c r="G62" s="16">
-        <f>G54+G57</f>
+        <f t="shared" si="10"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="H62" s="16">
-        <f>H54+H57</f>
+        <f t="shared" si="10"/>
         <v>1.7606781871535703E-2</v>
       </c>
       <c r="I62" s="16"/>
@@ -2714,7 +2830,7 @@
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
     </row>
-    <row r="63" spans="2:20" s="14" customFormat="1" ht="15.6">
+    <row r="63" spans="2:20" s="14" customFormat="1" ht="15.5">
       <c r="B63" s="20" t="s">
         <v>51</v>
       </c>
@@ -2723,23 +2839,23 @@
         <v>5.9514986957498331E-3</v>
       </c>
       <c r="D63" s="19">
-        <f>AVERAGE(D61:D62)</f>
+        <f t="shared" ref="C63:H63" si="11">AVERAGE(D61:D62)</f>
         <v>2.0993421520444294E-2</v>
       </c>
       <c r="E63" s="19">
-        <f>AVERAGE(E61:E62)</f>
+        <f t="shared" si="11"/>
         <v>2.7658495854953179E-2</v>
       </c>
       <c r="F63" s="19">
-        <f>AVERAGE(F61:F62)</f>
+        <f t="shared" si="11"/>
         <v>2.0765027322404372E-2</v>
       </c>
       <c r="G63" s="19">
-        <f>AVERAGE(G61:G62)</f>
+        <f t="shared" si="11"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="H63" s="19">
-        <f>AVERAGE(H61:H62)</f>
+        <f t="shared" si="11"/>
         <v>1.7606781871535703E-2</v>
       </c>
       <c r="I63" s="19"/>
@@ -2765,11 +2881,22 @@
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
     </row>
-    <row r="64" spans="2:20" s="14" customFormat="1" ht="15.6">
-      <c r="B64" s="17"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+    <row r="64" spans="2:20" s="14" customFormat="1" ht="15.5">
+      <c r="B64" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="16">
+        <f>AVERAGE(C53:C54)</f>
+        <v>1.7322390469184132E-3</v>
+      </c>
+      <c r="D64" s="16">
+        <f t="shared" ref="D64:E64" si="12">AVERAGE(D53:D54)</f>
+        <v>7.5816684916621717E-3</v>
+      </c>
+      <c r="E64" s="16">
+        <f t="shared" si="12"/>
+        <v>9.0455458141985249E-3</v>
+      </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -2784,7 +2911,7 @@
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
     </row>
-    <row r="65" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="65" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B65" s="6" t="s">
         <v>50</v>
       </c>
@@ -2800,7 +2927,7 @@
       <c r="L65" s="6"/>
       <c r="P65" s="13"/>
     </row>
-    <row r="66" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="66" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
         <v>36</v>
@@ -2820,7 +2947,7 @@
       <c r="P66" s="13"/>
       <c r="R66" s="6"/>
     </row>
-    <row r="67" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="67" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B67" s="3"/>
       <c r="C67" s="5" t="s">
         <v>31</v>
@@ -2867,7 +2994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="68" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B68" s="3"/>
       <c r="C68" s="5" t="s">
         <v>16</v>
@@ -2914,7 +3041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="69" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
@@ -2967,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="70" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2986,7 +3113,7 @@
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
     </row>
-    <row r="71" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="71" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
         <v>34</v>
@@ -3007,7 +3134,7 @@
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
     </row>
-    <row r="72" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="72" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B72" s="3"/>
       <c r="C72" s="5" t="s">
         <v>31</v>
@@ -3058,7 +3185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="73" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B73" s="3"/>
       <c r="C73" s="5" t="s">
         <v>16</v>
@@ -3109,7 +3236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="74" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
@@ -3162,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="75" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B75" s="3" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="76" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3234,7 +3361,7 @@
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
     </row>
-    <row r="77" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="77" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
         <v>33</v>
@@ -3255,7 +3382,7 @@
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
     </row>
-    <row r="78" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="78" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B78" s="3"/>
       <c r="C78" s="5" t="s">
         <v>31</v>
@@ -3302,7 +3429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="79" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B79" s="3"/>
       <c r="C79" s="5" t="s">
         <v>16</v>
@@ -3349,7 +3476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="80" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
@@ -3384,7 +3511,7 @@
       </c>
       <c r="R80" s="9"/>
     </row>
-    <row r="81" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="81" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B81" s="3" t="s">
         <v>0</v>
       </c>
@@ -3430,7 +3557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="85" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B85" s="3"/>
       <c r="C85" s="5" t="s">
         <v>31</v>
@@ -3481,7 +3608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="86" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B86" s="3"/>
       <c r="C86" s="5" t="s">
         <v>16</v>
@@ -3532,7 +3659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="87" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B87" s="3" t="s">
         <v>35</v>
       </c>
@@ -3563,7 +3690,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
-    <row r="88" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="88" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3582,7 +3709,7 @@
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
     </row>
-    <row r="89" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="89" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
         <v>34</v>
@@ -3603,7 +3730,7 @@
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
     </row>
-    <row r="90" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="90" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B90" s="6"/>
       <c r="C90" s="7" t="s">
         <v>45</v>
@@ -3624,7 +3751,7 @@
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
     </row>
-    <row r="91" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="91" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B91" s="3"/>
       <c r="C91" s="5" t="s">
         <v>31</v>
@@ -3675,7 +3802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="92" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B92" s="3"/>
       <c r="C92" s="5" t="s">
         <v>16</v>
@@ -3726,7 +3853,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="93" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
@@ -3757,7 +3884,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
     </row>
-    <row r="94" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="94" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B94" s="3" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3915,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
-    <row r="95" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="95" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3807,7 +3934,7 @@
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="96" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
         <v>33</v>
@@ -3830,7 +3957,7 @@
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
     </row>
-    <row r="97" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="97" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B97" s="3"/>
       <c r="C97" s="5" t="s">
         <v>31</v>
@@ -3881,7 +4008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="98" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B98" s="3"/>
       <c r="C98" s="5" t="s">
         <v>16</v>
@@ -3932,7 +4059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="99" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B99" s="3" t="s">
         <v>1</v>
       </c>
@@ -3963,7 +4090,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
-    <row r="100" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="100" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B100" s="3" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +4132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="104" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B104" s="6"/>
       <c r="C104" s="5" t="s">
         <v>31</v>
@@ -4053,7 +4180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="105" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B105" s="6"/>
       <c r="C105" s="5" t="s">
         <v>16</v>
@@ -4101,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="106" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B106" s="5" t="s">
         <v>35</v>
       </c>
@@ -4128,7 +4255,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="107" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -4143,7 +4270,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="108" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -4158,7 +4285,7 @@
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="109" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B109" s="6"/>
       <c r="C109" s="6" t="s">
         <v>34</v>
@@ -4175,7 +4302,7 @@
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="2:18" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="110" spans="2:18" s="1" customFormat="1" ht="77.5">
       <c r="B110" s="6"/>
       <c r="C110" s="5" t="s">
         <v>31</v>
@@ -4223,7 +4350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="111" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B111" s="6"/>
       <c r="C111" s="5" t="s">
         <v>16</v>
@@ -4271,7 +4398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:18" s="1" customFormat="1" ht="15.6">
+    <row r="112" spans="2:18" s="1" customFormat="1" ht="15.5">
       <c r="B112" s="3" t="s">
         <v>1</v>
       </c>
@@ -4298,7 +4425,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="2:25" s="1" customFormat="1" ht="15.6">
+    <row r="113" spans="2:25" s="1" customFormat="1" ht="15.5">
       <c r="B113" s="3" t="s">
         <v>0</v>
       </c>
@@ -4325,7 +4452,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="2:25" s="1" customFormat="1" ht="15.6">
+    <row r="114" spans="2:25" s="1" customFormat="1" ht="15.5">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -4340,7 +4467,7 @@
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="2:25" s="1" customFormat="1" ht="15.6">
+    <row r="115" spans="2:25" s="1" customFormat="1" ht="15.5">
       <c r="B115" s="6"/>
       <c r="C115" s="6" t="s">
         <v>33</v>
@@ -4359,7 +4486,7 @@
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="2:25" s="1" customFormat="1" ht="75.599999999999994">
+    <row r="116" spans="2:25" s="1" customFormat="1" ht="77.5">
       <c r="B116" s="6"/>
       <c r="C116" s="5" t="s">
         <v>31</v>
@@ -4407,7 +4534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="2:25" s="1" customFormat="1" ht="15.6">
+    <row r="117" spans="2:25" s="1" customFormat="1" ht="15.5">
       <c r="B117" s="6"/>
       <c r="C117" s="5" t="s">
         <v>16</v>
@@ -4455,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:25" s="1" customFormat="1" ht="15.6">
+    <row r="118" spans="2:25" s="1" customFormat="1" ht="15.5">
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4607,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:25" s="1" customFormat="1" ht="15.6">
+    <row r="119" spans="2:25" s="1" customFormat="1" ht="15.5">
       <c r="B119" s="3" t="s">
         <v>0</v>
       </c>
@@ -4547,12 +4674,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="39">
+      <c r="B2" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="52">
+        <v>645</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="52">
+        <v>377</v>
+      </c>
+      <c r="E4" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="52">
+        <v>322</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="52">
+        <v>1949</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="52">
+        <v>80</v>
+      </c>
+      <c r="E7" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="52">
+        <v>192</v>
+      </c>
+      <c r="E8" s="53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="52">
+        <v>4794</v>
+      </c>
+      <c r="E9" s="55" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>